--- a/stim_names.xlsx
+++ b/stim_names.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC294AE-DA64-40BD-970C-B8AFA66FAB9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="5430" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="5430" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PosX" sheetId="5" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <sheet name="VV_small" sheetId="6" r:id="rId5"/>
     <sheet name="DIM" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,16 +39,16 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>VV_290421/</t>
+    <t>50.8 x 40.6 x 30.5 centimètres</t>
   </si>
   <si>
-    <t>50.8 x 40.6 x 30.5 centimètres</t>
+    <t>VV_110521/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,14 +352,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -683,7 +684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -938,7 +939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2161,7 +2162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2848,17 +2849,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B1:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2877,11 +2879,11 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="str">
         <f>E1&amp;C1&amp;D1</f>
-        <v>VV_290421/875.png</v>
+        <v>VV_110521/875.png</v>
       </c>
       <c r="G1">
         <f>IF(B1&lt;0,1,IF(B1&gt;0,5,15))</f>
@@ -2901,11 +2903,11 @@
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N1" t="str">
         <f>M1&amp;K1&amp;L1</f>
-        <v>VV_270421/880.png</v>
+        <v>VV_110521/880.png</v>
       </c>
       <c r="O1">
         <f>IF(J1&lt;0,1,IF(J1&gt;0,5,15))</f>
@@ -2928,11 +2930,11 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F11" si="1">E2&amp;C2&amp;D2</f>
-        <v>VV_290421/880.png</v>
+        <v>VV_110521/880.png</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G11" si="2">IF(B2&lt;0,1,IF(B2&gt;0,5,15))</f>
@@ -2952,11 +2954,11 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N4" si="4">M2&amp;K2&amp;L2</f>
-        <v>VV_270421/885.png</v>
+        <v>VV_110521/885.png</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O4" si="5">IF(J2&lt;0,1,IF(J2&gt;0,5,15))</f>
@@ -2979,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="1"/>
-        <v>VV_290421/885.png</v>
+        <v>VV_110521/885.png</v>
       </c>
       <c r="G3">
         <f t="shared" si="2"/>
@@ -3003,11 +3005,11 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
-        <v>VV_270421/915.png</v>
+        <v>VV_110521/915.png</v>
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
@@ -3030,11 +3032,11 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
-        <v>VV_290421/890.png</v>
+        <v>VV_110521/890.png</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
@@ -3054,11 +3056,11 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="4"/>
-        <v>VV_270421/920.png</v>
+        <v>VV_110521/920.png</v>
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
@@ -3081,11 +3083,11 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v>VV_290421/895.png</v>
+        <v>VV_110521/895.png</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
@@ -3108,11 +3110,11 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>VV_290421/900.png</v>
+        <v>VV_110521/900.png</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
@@ -3135,11 +3137,11 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>VV_290421/905.png</v>
+        <v>VV_110521/905.png</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
@@ -3162,11 +3164,11 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>VV_290421/910.png</v>
+        <v>VV_110521/910.png</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
@@ -3189,11 +3191,11 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>VV_290421/915.png</v>
+        <v>VV_110521/915.png</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
@@ -3216,11 +3218,11 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>VV_290421/920.png</v>
+        <v>VV_110521/920.png</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
@@ -3243,11 +3245,11 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>VV_290421/925.png</v>
+        <v>VV_110521/925.png</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
@@ -3265,10 +3267,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -3379,7 +3381,7 @@
         <v>2.9296875E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E3:E4" si="2">1000*C4</f>
+        <f t="shared" ref="E4" si="2">1000*C4</f>
         <v>29.296875</v>
       </c>
       <c r="F4">
@@ -3415,7 +3417,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
